--- a/gameon/sales.xlsx
+++ b/gameon/sales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rupak\data-science\gameon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05951E0-8CDB-4740-8B68-754C65F53BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194AE9D3-1702-4EA5-AD23-A356390E5146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$40</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="216">
   <si>
     <t>Year</t>
   </si>
@@ -671,6 +671,12 @@
   </si>
   <si>
     <t>Barrackpur</t>
+  </si>
+  <si>
+    <t>In Transit</t>
+  </si>
+  <si>
+    <t>Lost</t>
   </si>
 </sst>
 </file>
@@ -1055,8 +1061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="C28" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2118,7 +2124,7 @@
         <v>14</v>
       </c>
       <c r="M21" t="s">
-        <v>20</v>
+        <v>214</v>
       </c>
       <c r="N21" s="6" t="s">
         <v>120</v>
@@ -2215,7 +2221,7 @@
         <v>14</v>
       </c>
       <c r="M23" t="s">
-        <v>20</v>
+        <v>215</v>
       </c>
       <c r="N23" s="6" t="s">
         <v>125</v>
@@ -2365,7 +2371,7 @@
         <v>34</v>
       </c>
       <c r="M26" t="s">
-        <v>20</v>
+        <v>214</v>
       </c>
       <c r="N26" s="6" t="s">
         <v>72</v>
@@ -2415,7 +2421,7 @@
         <v>34</v>
       </c>
       <c r="M27" t="s">
-        <v>20</v>
+        <v>214</v>
       </c>
       <c r="N27" s="6" t="s">
         <v>93</v>
@@ -2465,7 +2471,7 @@
         <v>34</v>
       </c>
       <c r="M28" t="s">
-        <v>20</v>
+        <v>214</v>
       </c>
       <c r="N28" s="6" t="s">
         <v>139</v>
@@ -2515,7 +2521,7 @@
         <v>34</v>
       </c>
       <c r="M29" t="s">
-        <v>20</v>
+        <v>214</v>
       </c>
       <c r="N29" s="6" t="s">
         <v>93</v>
@@ -2565,7 +2571,7 @@
         <v>34</v>
       </c>
       <c r="M30" t="s">
-        <v>20</v>
+        <v>214</v>
       </c>
       <c r="N30" s="6" t="s">
         <v>147</v>
@@ -2615,7 +2621,7 @@
         <v>34</v>
       </c>
       <c r="M31" t="s">
-        <v>20</v>
+        <v>214</v>
       </c>
       <c r="N31" s="6" t="s">
         <v>93</v>
@@ -2665,7 +2671,7 @@
         <v>34</v>
       </c>
       <c r="M32" t="s">
-        <v>20</v>
+        <v>214</v>
       </c>
       <c r="N32" s="6" t="s">
         <v>97</v>
@@ -2715,7 +2721,7 @@
         <v>64</v>
       </c>
       <c r="M33" t="s">
-        <v>20</v>
+        <v>214</v>
       </c>
       <c r="N33" s="6" t="s">
         <v>108</v>
@@ -2765,7 +2771,7 @@
         <v>14</v>
       </c>
       <c r="M34" t="s">
-        <v>20</v>
+        <v>214</v>
       </c>
       <c r="N34" s="6" t="s">
         <v>93</v>
@@ -2815,7 +2821,7 @@
         <v>34</v>
       </c>
       <c r="M35" t="s">
-        <v>20</v>
+        <v>214</v>
       </c>
       <c r="N35" s="6" t="s">
         <v>159</v>
@@ -2861,8 +2867,11 @@
       <c r="K36" s="6">
         <v>2939</v>
       </c>
+      <c r="L36" t="s">
+        <v>34</v>
+      </c>
       <c r="M36" t="s">
-        <v>20</v>
+        <v>214</v>
       </c>
       <c r="N36" s="6" t="s">
         <v>78</v>
@@ -2908,8 +2917,11 @@
       <c r="K37" s="6">
         <v>3059</v>
       </c>
+      <c r="L37" t="s">
+        <v>14</v>
+      </c>
       <c r="M37" t="s">
-        <v>20</v>
+        <v>214</v>
       </c>
       <c r="N37" s="6" t="s">
         <v>108</v>
@@ -2955,8 +2967,11 @@
       <c r="K38" s="6">
         <v>3064</v>
       </c>
+      <c r="L38" t="s">
+        <v>34</v>
+      </c>
       <c r="M38" t="s">
-        <v>20</v>
+        <v>214</v>
       </c>
       <c r="N38" s="6" t="s">
         <v>24</v>
@@ -3002,8 +3017,11 @@
       <c r="K39" s="6">
         <v>2509</v>
       </c>
+      <c r="L39" t="s">
+        <v>34</v>
+      </c>
       <c r="M39" t="s">
-        <v>20</v>
+        <v>214</v>
       </c>
       <c r="N39" s="6" t="s">
         <v>159</v>
@@ -3049,8 +3067,11 @@
       <c r="K40" s="6">
         <v>2959</v>
       </c>
+      <c r="L40" t="s">
+        <v>34</v>
+      </c>
       <c r="M40" t="s">
-        <v>20</v>
+        <v>214</v>
       </c>
       <c r="N40" s="6" t="s">
         <v>93</v>
@@ -3063,7 +3084,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:P40" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" display="https://seller.flipkart.com/undefinedRAQG86CFAHEUDQ7S" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="P3" r:id="rId2" display="https://seller.flipkart.com/undefinedRAQG86CFAHEUDQ7S" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -3144,7 +3165,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000008000000}">
           <x14:formula1>
-            <xm:f>Sheet2!$F$2:$F$4</xm:f>
+            <xm:f>Sheet2!$F$2:$F$6</xm:f>
           </x14:formula1>
           <xm:sqref>M1:M1048576</xm:sqref>
         </x14:dataValidation>
@@ -3177,7 +3198,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3304,6 +3325,9 @@
       <c r="B5" t="s">
         <v>29</v>
       </c>
+      <c r="F5" t="s">
+        <v>214</v>
+      </c>
       <c r="G5" t="s">
         <v>42</v>
       </c>
@@ -3317,6 +3341,9 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>59</v>
+      </c>
+      <c r="F6" t="s">
+        <v>215</v>
       </c>
       <c r="G6" t="s">
         <v>43</v>

--- a/gameon/sales.xlsx
+++ b/gameon/sales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rupak\data-science\gameon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194AE9D3-1702-4EA5-AD23-A356390E5146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91F88C0-9FF9-44FD-A26A-543CC2C52BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="220">
   <si>
     <t>Year</t>
   </si>
@@ -677,13 +677,25 @@
   </si>
   <si>
     <t>Lost</t>
+  </si>
+  <si>
+    <t>OD126772438087375000</t>
+  </si>
+  <si>
+    <t>Gos-Apacs-50-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chikmagalur </t>
+  </si>
+  <si>
+    <t>apacs Finapi 232 Strunged (28lbs) with Full Cover &amp; 1Grip Black Strung Badminton Racquet G4 - 8.25 cm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -700,43 +712,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF3392F3"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF636363"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF636363"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF3392F3"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -758,29 +747,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1059,25 +1041,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C28" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="12.54296875" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.1796875" customWidth="1"/>
+    <col min="5" max="5" width="24.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.81640625" customWidth="1"/>
     <col min="7" max="7" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.1796875" customWidth="1"/>
-    <col min="16" max="16" width="110.54296875" customWidth="1"/>
+    <col min="8" max="8" width="17" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.1796875" style="4" customWidth="1"/>
+    <col min="16" max="16" width="110.54296875" style="4" customWidth="1"/>
     <col min="19" max="19" width="24.36328125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="16" bestFit="1" customWidth="1"/>
@@ -1086,53 +1068,53 @@
     <col min="26" max="26" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1158,7 +1140,7 @@
       <c r="G2" t="s">
         <v>174</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I2" t="s">
@@ -1167,22 +1149,22 @@
       <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="4">
         <v>2999</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="4" t="s">
         <v>34</v>
       </c>
       <c r="M2" t="s">
         <v>20</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1199,7 +1181,7 @@
       <c r="D3" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>166</v>
       </c>
       <c r="F3" t="s">
@@ -1226,13 +1208,13 @@
       <c r="M3" t="s">
         <v>20</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="3" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1249,7 +1231,7 @@
       <c r="D4" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>172</v>
       </c>
       <c r="F4" t="s">
@@ -1282,7 +1264,7 @@
       <c r="O4" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="6" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1299,7 +1281,7 @@
       <c r="D5" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>172</v>
       </c>
       <c r="F5" t="s">
@@ -1308,7 +1290,7 @@
       <c r="G5" t="s">
         <v>177</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>71</v>
       </c>
       <c r="I5" t="s">
@@ -1332,7 +1314,7 @@
       <c r="O5" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="P5" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1349,7 +1331,7 @@
       <c r="D6" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>172</v>
       </c>
       <c r="F6" t="s">
@@ -1370,7 +1352,7 @@
       <c r="K6" s="6">
         <v>3059</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="4" t="s">
         <v>34</v>
       </c>
       <c r="M6" t="s">
@@ -1382,7 +1364,7 @@
       <c r="O6" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1399,7 +1381,7 @@
       <c r="D7" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="3" t="s">
         <v>172</v>
       </c>
       <c r="F7" t="s">
@@ -1420,7 +1402,7 @@
       <c r="K7" s="6">
         <v>2999</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="4" t="s">
         <v>34</v>
       </c>
       <c r="M7" t="s">
@@ -1432,7 +1414,7 @@
       <c r="O7" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="P7" s="3" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1449,7 +1431,7 @@
       <c r="D8" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="3" t="s">
         <v>166</v>
       </c>
       <c r="F8" t="s">
@@ -1482,7 +1464,7 @@
       <c r="O8" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="P8" s="3" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1499,7 +1481,7 @@
       <c r="D9" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="3" t="s">
         <v>172</v>
       </c>
       <c r="F9" t="s">
@@ -1520,7 +1502,7 @@
       <c r="K9" s="6">
         <v>3059</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="M9" t="s">
@@ -1532,7 +1514,7 @@
       <c r="O9" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="P9" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1549,7 +1531,7 @@
       <c r="D10" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="3" t="s">
         <v>172</v>
       </c>
       <c r="F10" t="s">
@@ -1570,7 +1552,7 @@
       <c r="K10" s="6">
         <v>2999</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="4" t="s">
         <v>34</v>
       </c>
       <c r="M10" t="s">
@@ -1582,7 +1564,7 @@
       <c r="O10" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="P10" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1599,7 +1581,7 @@
       <c r="D11" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="3" t="s">
         <v>172</v>
       </c>
       <c r="F11" t="s">
@@ -1620,7 +1602,7 @@
       <c r="K11" s="6">
         <v>3059</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="4" t="s">
         <v>34</v>
       </c>
       <c r="M11" t="s">
@@ -1632,7 +1614,7 @@
       <c r="O11" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="P11" s="5" t="s">
+      <c r="P11" s="3" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1670,7 +1652,7 @@
       <c r="K12" s="6">
         <v>3547</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="4" t="s">
         <v>34</v>
       </c>
       <c r="M12" t="s">
@@ -1682,7 +1664,7 @@
       <c r="O12" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="P12" s="5" t="s">
+      <c r="P12" s="3" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1699,7 +1681,7 @@
       <c r="D13" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="3" t="s">
         <v>168</v>
       </c>
       <c r="F13" t="s">
@@ -1720,7 +1702,7 @@
       <c r="K13" s="6">
         <v>2959</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="4" t="s">
         <v>34</v>
       </c>
       <c r="M13" t="s">
@@ -1732,7 +1714,7 @@
       <c r="O13" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="P13" s="5" t="s">
+      <c r="P13" s="3" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1749,7 +1731,7 @@
       <c r="D14" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="3" t="s">
         <v>167</v>
       </c>
       <c r="F14" t="s">
@@ -1770,7 +1752,7 @@
       <c r="K14" s="6">
         <v>2899</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="4" t="s">
         <v>34</v>
       </c>
       <c r="M14" t="s">
@@ -1782,7 +1764,7 @@
       <c r="O14" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="P14" s="6" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1820,7 +1802,7 @@
       <c r="K15" s="6">
         <v>2499</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="4" t="s">
         <v>34</v>
       </c>
       <c r="M15" t="s">
@@ -1832,7 +1814,7 @@
       <c r="O15" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="P15" s="5" t="s">
+      <c r="P15" s="3" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1849,7 +1831,7 @@
       <c r="D16" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="3" t="s">
         <v>166</v>
       </c>
       <c r="F16" t="s">
@@ -1870,7 +1852,7 @@
       <c r="K16" s="6">
         <v>2299</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="4" t="s">
         <v>34</v>
       </c>
       <c r="M16" t="s">
@@ -1882,7 +1864,7 @@
       <c r="O16" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P16" s="4" t="s">
+      <c r="P16" s="6" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1899,7 +1881,7 @@
       <c r="D17" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="3" t="s">
         <v>172</v>
       </c>
       <c r="F17" t="s">
@@ -1920,7 +1902,7 @@
       <c r="K17" s="6">
         <v>3059</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="4" t="s">
         <v>14</v>
       </c>
       <c r="M17" t="s">
@@ -1932,7 +1914,7 @@
       <c r="O17" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="P17" s="5" t="s">
+      <c r="P17" s="3" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1949,7 +1931,7 @@
       <c r="D18" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="3" t="s">
         <v>167</v>
       </c>
       <c r="F18" t="s">
@@ -1970,7 +1952,7 @@
       <c r="K18" s="6">
         <v>2899</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="4" t="s">
         <v>14</v>
       </c>
       <c r="M18" t="s">
@@ -1982,7 +1964,7 @@
       <c r="O18" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="P18" s="5" t="s">
+      <c r="P18" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2020,7 +2002,7 @@
       <c r="K19" s="6">
         <v>2959</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="4" t="s">
         <v>14</v>
       </c>
       <c r="M19" t="s">
@@ -2032,7 +2014,7 @@
       <c r="O19" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="P19" s="5" t="s">
+      <c r="P19" s="3" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2070,7 +2052,7 @@
       <c r="K20" s="6">
         <v>3059</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="4" t="s">
         <v>34</v>
       </c>
       <c r="M20" t="s">
@@ -2082,7 +2064,7 @@
       <c r="O20" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="P20" s="4" t="s">
+      <c r="P20" s="6" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2120,7 +2102,7 @@
       <c r="K21" s="6">
         <v>3159</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="4" t="s">
         <v>14</v>
       </c>
       <c r="M21" t="s">
@@ -2132,7 +2114,7 @@
       <c r="O21" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="P21" s="5" t="s">
+      <c r="P21" s="3" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2170,7 +2152,7 @@
       <c r="K22" s="6">
         <v>2959</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="4" t="s">
         <v>14</v>
       </c>
       <c r="M22" t="s">
@@ -2182,7 +2164,7 @@
       <c r="O22" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="P22" s="4" t="s">
+      <c r="P22" s="6" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2199,7 +2181,7 @@
       <c r="D23" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="3" t="s">
         <v>62</v>
       </c>
       <c r="F23" t="s">
@@ -2217,7 +2199,7 @@
       <c r="K23" s="6">
         <v>2799</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="4" t="s">
         <v>14</v>
       </c>
       <c r="M23" t="s">
@@ -2229,7 +2211,7 @@
       <c r="O23" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="P23" s="5" t="s">
+      <c r="P23" s="3" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2246,7 +2228,7 @@
       <c r="D24" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="3" t="s">
         <v>62</v>
       </c>
       <c r="F24" t="s">
@@ -2267,7 +2249,7 @@
       <c r="K24" s="6">
         <v>2799</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" s="4" t="s">
         <v>34</v>
       </c>
       <c r="M24" t="s">
@@ -2279,7 +2261,7 @@
       <c r="O24" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="P24" s="5" t="s">
+      <c r="P24" s="3" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2317,7 +2299,7 @@
       <c r="K25" s="6">
         <v>3044</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" s="4" t="s">
         <v>14</v>
       </c>
       <c r="M25" t="s">
@@ -2329,7 +2311,7 @@
       <c r="O25" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="P25" s="4" t="s">
+      <c r="P25" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2367,7 +2349,7 @@
       <c r="K26" s="6">
         <v>2846</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L26" s="4" t="s">
         <v>34</v>
       </c>
       <c r="M26" t="s">
@@ -2379,7 +2361,7 @@
       <c r="O26" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="P26" s="5" t="s">
+      <c r="P26" s="3" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2417,7 +2399,7 @@
       <c r="K27" s="6">
         <v>2399</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L27" s="4" t="s">
         <v>34</v>
       </c>
       <c r="M27" t="s">
@@ -2429,7 +2411,7 @@
       <c r="O27" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="P27" s="5" t="s">
+      <c r="P27" s="3" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2467,7 +2449,7 @@
       <c r="K28" s="6">
         <v>2999</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L28" s="4" t="s">
         <v>34</v>
       </c>
       <c r="M28" t="s">
@@ -2479,7 +2461,7 @@
       <c r="O28" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="P28" s="9" t="s">
+      <c r="P28" s="6" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2496,7 +2478,7 @@
       <c r="D29" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="3" t="s">
         <v>60</v>
       </c>
       <c r="F29" t="s">
@@ -2517,7 +2499,7 @@
       <c r="K29" s="6">
         <v>2399</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L29" s="4" t="s">
         <v>34</v>
       </c>
       <c r="M29" t="s">
@@ -2529,7 +2511,7 @@
       <c r="O29" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="P29" s="5" t="s">
+      <c r="P29" s="3" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2567,7 +2549,7 @@
       <c r="K30" s="6">
         <v>2859</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L30" s="4" t="s">
         <v>34</v>
       </c>
       <c r="M30" t="s">
@@ -2579,7 +2561,7 @@
       <c r="O30" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="P30" s="5" t="s">
+      <c r="P30" s="3" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2617,7 +2599,7 @@
       <c r="K31" s="6">
         <v>2899</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L31" s="4" t="s">
         <v>34</v>
       </c>
       <c r="M31" t="s">
@@ -2629,7 +2611,7 @@
       <c r="O31" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="P31" s="4" t="s">
+      <c r="P31" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2646,7 +2628,7 @@
       <c r="D32" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="3" t="s">
         <v>166</v>
       </c>
       <c r="F32" t="s">
@@ -2667,7 +2649,7 @@
       <c r="K32" s="6">
         <v>2509</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L32" s="4" t="s">
         <v>34</v>
       </c>
       <c r="M32" t="s">
@@ -2679,7 +2661,7 @@
       <c r="O32" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="P32" s="4" t="s">
+      <c r="P32" s="6" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2705,7 +2687,7 @@
       <c r="G33" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="H33" s="4" t="s">
         <v>155</v>
       </c>
       <c r="I33" t="s">
@@ -2729,7 +2711,7 @@
       <c r="O33" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="P33" s="5" t="s">
+      <c r="P33" s="3" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2767,7 +2749,7 @@
       <c r="K34" s="6">
         <v>2509</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L34" s="4" t="s">
         <v>14</v>
       </c>
       <c r="M34" t="s">
@@ -2779,7 +2761,7 @@
       <c r="O34" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="P34" s="5" t="s">
+      <c r="P34" s="3" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2817,7 +2799,7 @@
       <c r="K35" s="6">
         <v>2999</v>
       </c>
-      <c r="L35" t="s">
+      <c r="L35" s="4" t="s">
         <v>34</v>
       </c>
       <c r="M35" t="s">
@@ -2829,7 +2811,7 @@
       <c r="O35" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="P35" s="5" t="s">
+      <c r="P35" s="3" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2855,7 +2837,7 @@
       <c r="G36" t="s">
         <v>200</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="H36" s="7" t="s">
         <v>201</v>
       </c>
       <c r="I36" t="s">
@@ -2867,7 +2849,7 @@
       <c r="K36" s="6">
         <v>2939</v>
       </c>
-      <c r="L36" t="s">
+      <c r="L36" s="4" t="s">
         <v>34</v>
       </c>
       <c r="M36" t="s">
@@ -2917,7 +2899,7 @@
       <c r="K37" s="6">
         <v>3059</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L37" s="4" t="s">
         <v>14</v>
       </c>
       <c r="M37" t="s">
@@ -2929,7 +2911,7 @@
       <c r="O37" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="P37" t="s">
+      <c r="P37" s="4" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2967,7 +2949,7 @@
       <c r="K38" s="6">
         <v>3064</v>
       </c>
-      <c r="L38" t="s">
+      <c r="L38" s="4" t="s">
         <v>34</v>
       </c>
       <c r="M38" t="s">
@@ -3017,7 +2999,7 @@
       <c r="K39" s="6">
         <v>2509</v>
       </c>
-      <c r="L39" t="s">
+      <c r="L39" s="4" t="s">
         <v>34</v>
       </c>
       <c r="M39" t="s">
@@ -3067,7 +3049,7 @@
       <c r="K40" s="6">
         <v>2959</v>
       </c>
-      <c r="L40" t="s">
+      <c r="L40" s="4" t="s">
         <v>34</v>
       </c>
       <c r="M40" t="s">
@@ -3083,53 +3065,57 @@
         <v>10</v>
       </c>
     </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>2022</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="1">
+        <v>44907</v>
+      </c>
+      <c r="D41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" t="s">
+        <v>166</v>
+      </c>
+      <c r="F41" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" t="s">
+        <v>216</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="I41" t="s">
+        <v>29</v>
+      </c>
+      <c r="J41" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41" s="6">
+        <v>2497</v>
+      </c>
+      <c r="M41" t="s">
+        <v>214</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O41" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="P41" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:P40" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" display="https://seller.flipkart.com/undefinedRAQG86CFAHEUDQ7S" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="P3" r:id="rId2" display="https://seller.flipkart.com/undefinedRAQG86CFAHEUDQ7S" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E4" r:id="rId3" display="https://seller.flipkart.com/undefinedRAQGFKX3DZZVAH66" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E5" r:id="rId4" display="https://seller.flipkart.com/undefinedRAQGFKX3DZZVAH66" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="P5" r:id="rId5" display="https://seller.flipkart.com/undefinedRAQGFKXBDMAY5EAF" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E6" r:id="rId6" display="https://seller.flipkart.com/undefinedRAQGFKX3DZZVAH66" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E7" r:id="rId7" display="https://seller.flipkart.com/undefinedRAQGFKX3DZZVAH66" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="P7" r:id="rId8" display="https://seller.flipkart.com/undefinedRAQGFKXDFESF2GCY" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="E8" r:id="rId9" display="https://seller.flipkart.com/undefinedRAQG86BVCSU9MJET" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="P8" r:id="rId10" display="https://seller.flipkart.com/undefinedRAQG86BVCSU9MJET" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E9" r:id="rId11" display="https://seller.flipkart.com/undefinedRAQGFKX3DZZVAH66" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="P9" r:id="rId12" display="https://seller.flipkart.com/undefinedRAQGAX6CRJQHEV9P" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="E10" r:id="rId13" display="https://seller.flipkart.com/undefinedRAQGAX6CRJQHEV9P" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="P10" r:id="rId14" display="https://seller.flipkart.com/undefinedRAQGAX6CRJQHEV9P" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="E11" r:id="rId15" display="https://seller.flipkart.com/undefinedRAQGFKXDFESF2GCY" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="P11" r:id="rId16" display="https://seller.flipkart.com/undefinedRAQGFKXDFESF2GCY" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="P12" r:id="rId17" display="https://seller.flipkart.com/undefinedRAQG3KTFXPEFGNA4" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="E13" r:id="rId18" display="https://seller.flipkart.com/undefinedRAQG8JHSAHUHJXXK" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="P13" r:id="rId19" display="https://seller.flipkart.com/undefinedRAQG8JHSAHUHJXXK" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="E14" r:id="rId20" display="https://seller.flipkart.com/undefinedRAQG7B4TUZGTUHMR" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="P15" r:id="rId21" display="https://seller.flipkart.com/undefinedRAQGBHNG3QVDYAY9" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E16" r:id="rId22" display="https://seller.flipkart.com/undefinedRAQG3F726NZYFSUG" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="E17" r:id="rId23" display="https://seller.flipkart.com/undefinedRAQGFKXGFZFZCAR6" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="P17" r:id="rId24" display="https://seller.flipkart.com/undefinedRAQGFKXGFZFZCAR6" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="E18" r:id="rId25" display="https://seller.flipkart.com/undefinedRAQG8HCCBYKFNGZQ" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="P18" r:id="rId26" display="https://seller.flipkart.com/undefinedRAQG8HCCBYKFNGZQ" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="P19" r:id="rId27" display="https://seller.flipkart.com/undefinedRAQG8JHB8ZGDGFQ5" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="P21" r:id="rId28" display="https://seller.flipkart.com/undefinedRAQGFHYDMFYSUAAR" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="E23" r:id="rId29" display="https://seller.flipkart.com/undefinedRAQG8JZ8BZJ5SMA5" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="P23" r:id="rId30" display="https://seller.flipkart.com/undefinedRAQG8JZ8BZJ5SMA5" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="E24" r:id="rId31" display="https://seller.flipkart.com/undefinedRAQG8JZ8BZJ5SMA5" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="P24" r:id="rId32" display="https://seller.flipkart.com/undefinedRAQGBMRHYTRYBTJT" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="P26" r:id="rId33" display="https://seller.flipkart.com/undefinedRAQG7PR5BRS2WHSZ" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="P27" r:id="rId34" display="https://seller.flipkart.com/undefinedRAQGFD7MCGGRGJAY" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="E29" r:id="rId35" display="https://seller.flipkart.com/undefinedRAQGFD6FYXQUQB8G" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="P29" r:id="rId36" display="https://seller.flipkart.com/undefinedRAQGFD6FYXQUQB8G" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="P30" r:id="rId37" display="https://seller.flipkart.com/undefinedRAQG8JNKCZWGCWSG" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="E32" r:id="rId38" display="https://seller.flipkart.com/undefinedRAQG86B5ZXQREJNQ" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="P33" r:id="rId39" display="https://seller.flipkart.com/undefinedKITG795KYJ7GR52S" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="P34" r:id="rId40" display="https://seller.flipkart.com/undefinedRAQG86BVCSU9MJET" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="P35" r:id="rId41" display="https://seller.flipkart.com/undefinedRAQG8YSFERAH7RTW" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId42"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
@@ -3211,32 +3197,32 @@
     <col min="8" max="8" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
     </row>

--- a/gameon/sales.xlsx
+++ b/gameon/sales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rupak\data-science\gameon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91F88C0-9FF9-44FD-A26A-543CC2C52BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E621995-2945-4CF7-A599-93A2CFCDB088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$42</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="224">
   <si>
     <t>Year</t>
   </si>
@@ -689,6 +689,18 @@
   </si>
   <si>
     <t>apacs Finapi 232 Strunged (28lbs) with Full Cover &amp; 1Grip Black Strung Badminton Racquet G4 - 8.25 cm</t>
+  </si>
+  <si>
+    <t>OD426781032602845100</t>
+  </si>
+  <si>
+    <t>Yonex-2020-156</t>
+  </si>
+  <si>
+    <t>Ganjam District</t>
+  </si>
+  <si>
+    <t>YONEX Voltric Lite 25i &amp; 1Grip Purple, Blue Strung Badminton Racquet G4 - 8.25 cm</t>
   </si>
 </sst>
 </file>
@@ -730,15 +742,27 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -746,21 +770,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1041,10 +1086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1054,12 +1099,12 @@
     <col min="5" max="5" width="24.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.81640625" customWidth="1"/>
     <col min="7" max="7" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.1796875" style="4" customWidth="1"/>
-    <col min="16" max="16" width="110.54296875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.1796875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="110.54296875" style="2" customWidth="1"/>
     <col min="19" max="19" width="24.36328125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="16" bestFit="1" customWidth="1"/>
@@ -1068,35 +1113,35 @@
     <col min="26" max="26" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>161</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
       <c r="K1" s="5" t="s">
@@ -1105,7 +1150,7 @@
       <c r="L1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="4" t="s">
         <v>19</v>
       </c>
       <c r="N1" s="5" t="s">
@@ -1119,2001 +1164,2053 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>2022</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="7">
         <v>44891</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="4">
+      <c r="J2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="8">
         <v>2999</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2022</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="7">
         <v>44896</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="6">
+      <c r="J3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="10">
         <v>2299</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>2022</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="7">
         <v>44898</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="6">
+      <c r="J4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="10">
         <v>2999</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P4" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>2022</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="7">
         <v>44899</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="6">
+      <c r="J5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="10">
         <v>3044</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>2022</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="7">
         <v>44894</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="6">
+      <c r="J6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="10">
         <v>3059</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="O6" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="P6" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>2022</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="7">
         <v>44900</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="6">
+      <c r="J7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="10">
         <v>2999</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="N7" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="O7" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P7" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>2022</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="A8" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="7">
         <v>44900</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="6">
+      <c r="J8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="10">
         <v>2497</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="N8" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="O8" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="P8" s="6" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>2022</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="A9" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="7">
         <v>44897</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="6">
+      <c r="J9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="10">
         <v>3059</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="N9" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="O9" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="P9" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>2022</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="A10" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="7">
         <v>44899</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="6">
+      <c r="J10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="10">
         <v>2999</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="N10" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="O10" s="6" t="s">
+      <c r="O10" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="P10" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>2022</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="7">
         <v>44896</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="6">
+      <c r="J11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="10">
         <v>3059</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="N11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="O11" s="6" t="s">
+      <c r="O11" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="P11" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>2022</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="7">
         <v>44894</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="6">
+      <c r="J12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="10">
         <v>3547</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="N12" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="O12" s="6" t="s">
+      <c r="O12" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="P12" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>2022</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="A13" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="7">
         <v>44894</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="6">
+      <c r="J13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="10">
         <v>2959</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="L13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="N13" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="O13" s="6" t="s">
+      <c r="O13" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="P13" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>2022</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="A14" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="7">
         <v>44895</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J14" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="6">
+      <c r="J14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="10">
         <v>2899</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="N14" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="O14" s="6" t="s">
+      <c r="O14" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="P14" s="6" t="s">
+      <c r="P14" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>2022</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="A15" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="7">
         <v>44892</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="6">
+      <c r="J15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="10">
         <v>2499</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="N15" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="O15" s="6" t="s">
+      <c r="O15" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="P15" s="6" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>2022</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="A16" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="7">
         <v>44896</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" s="6">
+      <c r="J16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="10">
         <v>2299</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="L16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N16" s="6" t="s">
+      <c r="N16" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="O16" s="6" t="s">
+      <c r="O16" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="P16" s="6" t="s">
+      <c r="P16" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>2022</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="A17" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="7">
         <v>44896</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J17" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="6">
+      <c r="J17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="10">
         <v>3059</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="L17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N17" s="6" t="s">
+      <c r="N17" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="O17" s="6" t="s">
+      <c r="O17" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="P17" s="3" t="s">
+      <c r="P17" s="6" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>2022</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="A18" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="7">
         <v>44897</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J18" t="s">
-        <v>16</v>
-      </c>
-      <c r="K18" s="6">
+      <c r="J18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="10">
         <v>2899</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="L18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N18" s="6" t="s">
+      <c r="N18" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="O18" s="6" t="s">
+      <c r="O18" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="P18" s="3" t="s">
+      <c r="P18" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>2022</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="A19" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="7">
         <v>44899</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J19" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" s="6">
+      <c r="J19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="10">
         <v>2959</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="L19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N19" s="6" t="s">
+      <c r="N19" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="O19" s="6" t="s">
+      <c r="O19" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="P19" s="3" t="s">
+      <c r="P19" s="6" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>2022</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="A20" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="7">
         <v>44899</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J20" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" s="6">
+      <c r="J20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="10">
         <v>3059</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="L20" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N20" s="6" t="s">
+      <c r="N20" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="O20" s="6" t="s">
+      <c r="O20" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="P20" s="6" t="s">
+      <c r="P20" s="10" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>2022</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="A21" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="7">
         <v>44900</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J21" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="6">
+      <c r="J21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="10">
         <v>3159</v>
       </c>
-      <c r="L21" s="4" t="s">
+      <c r="L21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="7">
+        <v>44900</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="10">
+        <v>2959</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="7">
+        <v>44901</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="10">
+        <v>2799</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="7">
+        <v>44902</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="10">
+        <v>2799</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="O24" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A25" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="7">
+        <v>44902</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="10">
+        <v>3044</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="O25" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="P25" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A26" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="7">
+        <v>44903</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="10">
+        <v>2846</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="O26" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A27" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="7">
+        <v>44903</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="10">
+        <v>2399</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M27" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="N21" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="O21" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>2022</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="N27" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="O27" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A28" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="1">
-        <v>44900</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C28" s="7">
+        <v>44903</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E28" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" s="10">
+        <v>2999</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="O28" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="P28" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A29" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="7">
+        <v>44903</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="10">
+        <v>2399</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="O29" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A30" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C30" s="7">
+        <v>44903</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" s="10">
+        <v>2859</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="N30" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="O30" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A31" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="7">
+        <v>44903</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31" s="10">
+        <v>2899</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="N31" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="O31" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="P31" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A32" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="7">
+        <v>44904</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" s="10">
+        <v>2509</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N32" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="O32" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="P32" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A33" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="7">
+        <v>44904</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K33" s="10">
+        <v>2849</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="N33" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="O33" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="P33" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A34" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="7">
+        <v>44904</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" s="10">
+        <v>2509</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="N34" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="O34" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="P34" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A35" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="7">
+        <v>44904</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" s="10">
+        <v>2999</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="N35" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="O35" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A36" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="7">
+        <v>44905</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F36" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G22" t="s">
-        <v>184</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="G36" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I36" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J22" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22" s="6">
+      <c r="J36" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K36" s="10">
+        <v>2939</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N36" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="O36" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="P36" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A37" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="7">
+        <v>44906</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" s="10">
+        <v>3059</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="N37" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="O37" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="P37" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A38" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="7">
+        <v>44906</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" s="10">
+        <v>3064</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="N38" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O38" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="P38" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A39" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="7">
+        <v>44906</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" s="10">
+        <v>2509</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="N39" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="O39" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="P39" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A40" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="7">
+        <v>44907</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40" s="10">
         <v>2959</v>
       </c>
-      <c r="L22" s="4" t="s">
+      <c r="L40" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="N40" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="O40" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="P40" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A41" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="7">
+        <v>44907</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41" s="10">
+        <v>2497</v>
+      </c>
+      <c r="L41" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M22" t="s">
-        <v>20</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="O22" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="P22" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>2022</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="M41" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="N41" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="O41" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="P41" s="10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A42" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="1">
-        <v>44901</v>
-      </c>
-      <c r="D23" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="C42" s="7">
+        <v>44908</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H23" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="G42" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="I42" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K23" s="6">
-        <v>2799</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M23" t="s">
-        <v>215</v>
-      </c>
-      <c r="N23" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="O23" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>2022</v>
-      </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="1">
-        <v>44902</v>
-      </c>
-      <c r="D24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" t="s">
-        <v>189</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="I24" t="s">
-        <v>29</v>
-      </c>
-      <c r="J24" t="s">
-        <v>16</v>
-      </c>
-      <c r="K24" s="6">
-        <v>2799</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M24" t="s">
-        <v>20</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="O24" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>2022</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="1">
-        <v>44902</v>
-      </c>
-      <c r="D25" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F25" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" t="s">
-        <v>187</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I25" t="s">
-        <v>12</v>
-      </c>
-      <c r="J25" t="s">
-        <v>16</v>
-      </c>
-      <c r="K25" s="6">
-        <v>3044</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M25" t="s">
-        <v>20</v>
-      </c>
-      <c r="N25" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="O25" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="P25" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>2022</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="1">
-        <v>44903</v>
-      </c>
-      <c r="D26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F26" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="I26" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26" t="s">
-        <v>16</v>
-      </c>
-      <c r="K26" s="6">
-        <v>2846</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M26" t="s">
+      <c r="J42" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" s="8">
+        <v>2299</v>
+      </c>
+      <c r="L42" s="8"/>
+      <c r="M42" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="N26" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="O26" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>2022</v>
-      </c>
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="1">
-        <v>44903</v>
-      </c>
-      <c r="D27" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" t="s">
-        <v>191</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="I27" t="s">
-        <v>29</v>
-      </c>
-      <c r="J27" t="s">
-        <v>16</v>
-      </c>
-      <c r="K27" s="6">
-        <v>2399</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M27" t="s">
-        <v>214</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="O27" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>2022</v>
-      </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="1">
-        <v>44903</v>
-      </c>
-      <c r="D28" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F28" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" t="s">
-        <v>192</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="I28" t="s">
-        <v>12</v>
-      </c>
-      <c r="J28" t="s">
-        <v>16</v>
-      </c>
-      <c r="K28" s="6">
-        <v>2999</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M28" t="s">
-        <v>214</v>
-      </c>
-      <c r="N28" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="O28" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="P28" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>2022</v>
-      </c>
-      <c r="B29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="1">
-        <v>44903</v>
-      </c>
-      <c r="D29" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F29" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" t="s">
-        <v>193</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="I29" t="s">
-        <v>29</v>
-      </c>
-      <c r="J29" t="s">
-        <v>16</v>
-      </c>
-      <c r="K29" s="6">
-        <v>2399</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M29" t="s">
-        <v>214</v>
-      </c>
-      <c r="N29" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="O29" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>2022</v>
-      </c>
-      <c r="B30" t="s">
-        <v>145</v>
-      </c>
-      <c r="C30" s="1">
-        <v>44903</v>
-      </c>
-      <c r="D30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F30" t="s">
-        <v>31</v>
-      </c>
-      <c r="G30" t="s">
-        <v>194</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="I30" t="s">
-        <v>29</v>
-      </c>
-      <c r="J30" t="s">
-        <v>16</v>
-      </c>
-      <c r="K30" s="6">
-        <v>2859</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M30" t="s">
-        <v>214</v>
-      </c>
-      <c r="N30" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="O30" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="P30" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>2022</v>
-      </c>
-      <c r="B31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="1">
-        <v>44903</v>
-      </c>
-      <c r="D31" t="s">
-        <v>52</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F31" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" t="s">
-        <v>195</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" t="s">
-        <v>29</v>
-      </c>
-      <c r="J31" t="s">
-        <v>16</v>
-      </c>
-      <c r="K31" s="6">
-        <v>2899</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M31" t="s">
-        <v>214</v>
-      </c>
-      <c r="N31" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="O31" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="P31" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>2022</v>
-      </c>
-      <c r="B32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="1">
-        <v>44904</v>
-      </c>
-      <c r="D32" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="F32" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" t="s">
-        <v>196</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="I32" t="s">
-        <v>29</v>
-      </c>
-      <c r="J32" t="s">
-        <v>16</v>
-      </c>
-      <c r="K32" s="6">
-        <v>2509</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M32" t="s">
-        <v>214</v>
-      </c>
-      <c r="N32" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="O32" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="P32" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>2022</v>
-      </c>
-      <c r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="1">
-        <v>44904</v>
-      </c>
-      <c r="D33" t="s">
-        <v>53</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="I33" t="s">
-        <v>29</v>
-      </c>
-      <c r="J33" t="s">
-        <v>35</v>
-      </c>
-      <c r="K33" s="6">
-        <v>2849</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="M33" t="s">
-        <v>214</v>
-      </c>
-      <c r="N33" s="6" t="s">
+      <c r="N42" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="O33" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>2022</v>
-      </c>
-      <c r="B34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="1">
-        <v>44904</v>
-      </c>
-      <c r="D34" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G34" t="s">
-        <v>198</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="I34" t="s">
-        <v>29</v>
-      </c>
-      <c r="J34" t="s">
-        <v>16</v>
-      </c>
-      <c r="K34" s="6">
-        <v>2509</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M34" t="s">
-        <v>214</v>
-      </c>
-      <c r="N34" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="O34" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="P34" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>2022</v>
-      </c>
-      <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="1">
-        <v>44904</v>
-      </c>
-      <c r="D35" t="s">
-        <v>53</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F35" t="s">
-        <v>32</v>
-      </c>
-      <c r="G35" t="s">
-        <v>197</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="I35" t="s">
-        <v>29</v>
-      </c>
-      <c r="J35" t="s">
-        <v>16</v>
-      </c>
-      <c r="K35" s="6">
-        <v>2999</v>
-      </c>
-      <c r="L35" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M35" t="s">
-        <v>214</v>
-      </c>
-      <c r="N35" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="O35" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>2022</v>
-      </c>
-      <c r="B36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="1">
-        <v>44905</v>
-      </c>
-      <c r="D36" t="s">
-        <v>54</v>
-      </c>
-      <c r="E36" t="s">
-        <v>168</v>
-      </c>
-      <c r="F36" t="s">
-        <v>32</v>
-      </c>
-      <c r="G36" t="s">
-        <v>200</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="I36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J36" t="s">
-        <v>16</v>
-      </c>
-      <c r="K36" s="6">
-        <v>2939</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M36" t="s">
-        <v>214</v>
-      </c>
-      <c r="N36" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="O36" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="P36" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>2022</v>
-      </c>
-      <c r="B37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="1">
-        <v>44906</v>
-      </c>
-      <c r="D37" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37" t="s">
-        <v>172</v>
-      </c>
-      <c r="F37" t="s">
-        <v>32</v>
-      </c>
-      <c r="G37" t="s">
-        <v>204</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I37" t="s">
-        <v>12</v>
-      </c>
-      <c r="J37" t="s">
-        <v>16</v>
-      </c>
-      <c r="K37" s="6">
-        <v>3059</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M37" t="s">
-        <v>214</v>
-      </c>
-      <c r="N37" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="O37" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="P37" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>2022</v>
-      </c>
-      <c r="B38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="1">
-        <v>44906</v>
-      </c>
-      <c r="D38" t="s">
-        <v>55</v>
-      </c>
-      <c r="E38" t="s">
-        <v>172</v>
-      </c>
-      <c r="F38" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" t="s">
-        <v>206</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="I38" t="s">
-        <v>12</v>
-      </c>
-      <c r="J38" t="s">
-        <v>16</v>
-      </c>
-      <c r="K38" s="6">
-        <v>3064</v>
-      </c>
-      <c r="L38" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M38" t="s">
-        <v>214</v>
-      </c>
-      <c r="N38" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="O38" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="P38" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>2022</v>
-      </c>
-      <c r="B39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="1">
-        <v>44906</v>
-      </c>
-      <c r="D39" t="s">
-        <v>55</v>
-      </c>
-      <c r="E39" t="s">
-        <v>166</v>
-      </c>
-      <c r="F39" t="s">
-        <v>32</v>
-      </c>
-      <c r="G39" t="s">
-        <v>210</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="I39" t="s">
-        <v>12</v>
-      </c>
-      <c r="J39" t="s">
-        <v>16</v>
-      </c>
-      <c r="K39" s="6">
-        <v>2509</v>
-      </c>
-      <c r="L39" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M39" t="s">
-        <v>214</v>
-      </c>
-      <c r="N39" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="O39" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="P39" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>2022</v>
-      </c>
-      <c r="B40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="1">
-        <v>44907</v>
-      </c>
-      <c r="D40" t="s">
-        <v>49</v>
-      </c>
-      <c r="E40" t="s">
-        <v>167</v>
-      </c>
-      <c r="F40" t="s">
-        <v>32</v>
-      </c>
-      <c r="G40" t="s">
-        <v>212</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I40" t="s">
-        <v>27</v>
-      </c>
-      <c r="J40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K40" s="6">
-        <v>2959</v>
-      </c>
-      <c r="L40" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M40" t="s">
-        <v>214</v>
-      </c>
-      <c r="N40" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="O40" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="P40" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>2022</v>
-      </c>
-      <c r="B41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="1">
-        <v>44907</v>
-      </c>
-      <c r="D41" t="s">
-        <v>49</v>
-      </c>
-      <c r="E41" t="s">
-        <v>166</v>
-      </c>
-      <c r="F41" t="s">
-        <v>32</v>
-      </c>
-      <c r="G41" t="s">
-        <v>216</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="I41" t="s">
-        <v>29</v>
-      </c>
-      <c r="J41" t="s">
-        <v>16</v>
-      </c>
-      <c r="K41" s="6">
-        <v>2497</v>
-      </c>
-      <c r="M41" t="s">
-        <v>214</v>
-      </c>
-      <c r="N41" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="O41" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="P41" s="6" t="s">
-        <v>219</v>
+      <c r="O42" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="P42" s="8" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P40" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:P42" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -3197,32 +3294,32 @@
     <col min="8" max="8" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
